--- a/data/processed/state_overviews/maine_overview.xlsx
+++ b/data/processed/state_overviews/maine_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>875</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Androscoggin County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>63</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Aroostook County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>29</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>260</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>17</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Hancock County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>75</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Kennebec County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>77</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Knox County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>46</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>40</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Oxford County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>30</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Penobscot County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>67</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Piscataquis County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Sagadahoc County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>16</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Somerset County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>20</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Waldo County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>23</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>33</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>York County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>70</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -935,6 +969,38 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>54.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$1,125,149,145</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.09%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-7.21%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>60.34%</t>
         </is>
       </c>
     </row>
@@ -989,8 +1055,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>447</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1019,8 +1087,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>428</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1049,8 +1119,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>875</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1124,8 +1196,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>309</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1154,8 +1228,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>219</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1184,8 +1260,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>138</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1214,8 +1292,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>53</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1244,8 +1324,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>97</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1274,8 +1356,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>59</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,8 +1388,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>875</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>104</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1409,8 +1497,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>98</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1439,8 +1529,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>75</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1469,8 +1561,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>78</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1499,8 +1593,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>227</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>9</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>50</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>6</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1649,8 +1753,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>207</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1679,8 +1785,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1709,8 +1817,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>875</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/maine_overview.xlsx
+++ b/data/processed/state_overviews/maine_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,576 +431,608 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Androscoggin County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$173,273,798</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.11%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-19.67%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aroostook County</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$82,763,262</t>
+          <t>$1,125,149,145</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-18.23%</t>
+          <t>-7.21%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>89.66%</t>
+          <t>60.34%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Androscoggin County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$305,124,356</t>
+          <t>$173,273,798</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.68%</t>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.43%</t>
+          <t>-19.67%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>59.62%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Aroostook County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$15,413,036</t>
+          <t>$82,763,262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.51%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.95%</t>
+          <t>-18.23%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>89.66%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hancock County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$132,161,229</t>
+          <t>$305,124,356</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.84%</t>
+          <t>11.68%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>-5.43%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>45.33%</t>
+          <t>59.62%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kennebec County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$124,671,618</t>
+          <t>$15,413,036</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>18.51%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-15.07%</t>
+          <t>-1.95%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.13%</t>
+          <t>52.94%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Hancock County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$11,495,941</t>
+          <t>$132,161,229</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.24%</t>
+          <t>17.84%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45.65%</t>
+          <t>45.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Kennebec County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$19,331,801</t>
+          <t>$124,671,618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.53%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.29%</t>
+          <t>-15.07%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>70.13%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Oxford County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$44,984,515</t>
+          <t>$11,495,941</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.11%</t>
+          <t>14.24%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.34%</t>
+          <t>0.92%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>45.65%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Penobscot County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$93,595,589</t>
+          <t>$19,331,801</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>16.53%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-15.36%</t>
+          <t>2.29%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73.13%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Piscataquis County</t>
+          <t>Oxford County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,557,999</t>
+          <t>$44,984,515</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.90%</t>
+          <t>13.11%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.23%</t>
+          <t>-4.34%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sagadahoc County</t>
+          <t>Penobscot County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$5,676,081</t>
+          <t>$93,595,589</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18.04%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>-15.36%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>73.13%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Somerset County</t>
+          <t>Piscataquis County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$11,664,387</t>
+          <t>$1,557,999</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>16.90%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.75%</t>
+          <t>-1.23%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Waldo County</t>
+          <t>Sagadahoc County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$12,395,735</t>
+          <t>$5,676,081</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17.51%</t>
+          <t>18.04%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-9.17%</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>43.75%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Somerset County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$24,262,685</t>
+          <t>$11,664,387</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.90%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-8.52%</t>
+          <t>-0.75%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>60.61%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Waldo County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$66,777,113</t>
+          <t>$12,395,735</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.70%</t>
+          <t>17.51%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-1.81%</t>
+          <t>-9.17%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>54.29%</t>
+          <t>56.52%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,125,149,145</t>
+          <t>$24,262,685</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>14.90%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>-8.52%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60.34%</t>
+          <t>60.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>York County</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$66,777,113</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.70%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>54.29%</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1020,128 +1052,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$430,283,857</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.94%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-3.23%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>56.15%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$694,865,288</t>
+          <t>$1,125,149,145</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.34%</t>
+          <t>-7.21%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64.72%</t>
+          <t>60.34%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,125,149,145</t>
+          <t>$430,283,857</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>12.94%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>-3.23%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.34%</t>
+          <t>56.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$694,865,288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.69%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-10.34%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>64.72%</t>
         </is>
       </c>
     </row>
@@ -1166,34 +1230,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1225,128 +1289,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,608,001</t>
+          <t>$771,882,374</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.70%</t>
+          <t>6.69%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.09%</t>
+          <t>-5.92%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.75%</t>
+          <t>63.92%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$30,454,987</t>
+          <t>$174,608,001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>8.70%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-4.87%</t>
+          <t>-11.09%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>65.75%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$113,063,921</t>
+          <t>$30,454,987</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.96%</t>
+          <t>-4.87%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.36%</t>
+          <t>56.52%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$771,882,374</t>
+          <t>$113,063,921</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.69%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-5.92%</t>
+          <t>-10.96%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63.92%</t>
+          <t>77.36%</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1499,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1494,7 +1558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1526,7 +1590,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1558,7 +1622,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1622,7 +1686,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1654,7 +1718,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1686,7 +1750,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1718,7 +1782,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1750,64 +1814,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$431,161,746</t>
+          <t>$51,188,684</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.13%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68.60%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$51,188,684</t>
+          <t>$431,161,746</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>-10.13%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>68.60%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/maine_overview.xlsx
+++ b/data/processed/state_overviews/maine_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>875</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,125,149,145</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>875</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,125,149,145</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$173,273,798</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.11%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-19.67%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>89.66%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$82,763,262</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4.94%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-18.23%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>89.66%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>59.62%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>260</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$305,124,356</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.68%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>59.62%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>52.94%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$15,413,036</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>18.51%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-1.95%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>52.94%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>45.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$132,161,229</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>17.84%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.66%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>45.33%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>70.13%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$124,671,618</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7.59%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-15.07%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>70.13%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>45.65%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$11,495,941</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>14.24%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.92%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>45.65%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$19,331,801</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>16.53%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$44,984,515</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>13.11%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-4.34%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>73.13%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$93,595,589</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>4.83%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-15.36%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>73.13%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,557,999</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>16.90%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-1.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>43.75%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$5,676,081</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>18.04%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>11.25%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>43.75%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$11,664,387</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-0.75%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>56.52%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$12,395,735</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>17.51%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-9.17%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>56.52%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>60.61%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$24,262,685</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>14.90%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-8.52%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>60.61%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>54.29%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$66,777,113</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>15.70%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-1.81%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>54.29%</t>
         </is>
       </c>
     </row>
@@ -1057,27 +1057,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1089,27 +1089,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1121,91 +1121,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>875</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,125,149,145</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>56.15%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>447</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$430,283,857</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.94%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-3.23%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>56.15%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>64.72%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>428</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$694,865,288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-10.34%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>64.72%</t>
         </is>
       </c>
     </row>
@@ -1230,187 +1230,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>58.25%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>309</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$32,594,356</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.33%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.45%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>58.25%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>65.75%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$771,882,374</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.69%</t>
+          <t>$174,608,001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.92%</t>
+          <t>8.70%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63.92%</t>
+          <t>-11.09%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>56.52%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$174,608,001</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.70%</t>
+          <t>$30,454,987</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.09%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.75%</t>
+          <t>-4.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>77.36%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$30,454,987</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>$113,063,921</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-4.87%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>-10.96%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>63.92%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$113,063,921</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>$771,882,374</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.96%</t>
+          <t>6.69%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.36%</t>
+          <t>-5.92%</t>
         </is>
       </c>
     </row>
@@ -1422,27 +1422,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>38.98%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,545,506</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>36.59%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>19.34%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>38.98%</t>
         </is>
       </c>
     </row>
@@ -1454,27 +1454,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>875</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,125,149,145</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
@@ -1499,155 +1499,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>42.31%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$31,922,906</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>27.59%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.10%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>42.31%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.27%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$64,230,683</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.36%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.27%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>37.33%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$23,170,295</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>24.82%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>13.63%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>37.33%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$118,304,241</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.04%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-13.74%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>73.08%</t>
         </is>
       </c>
     </row>
@@ -1659,219 +1659,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$40,484,996</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5.18%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.75%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>64.76%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>227</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$272,920,387</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.41%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>64.76%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$14,730,860</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>14.71%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-22.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>64.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$76,253,224</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>14.33%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-8.92%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>64.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$781,123</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>22.23%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>18.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>68.60%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$51,188,684</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>$431,161,746</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>-10.13%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$431,161,746</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>$51,188,684</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.13%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.60%</t>
+          <t>0.07%</t>
         </is>
       </c>
     </row>
@@ -1883,27 +1883,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>875</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,125,149,145</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
